--- a/data/trans_orig/Q5403-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6651</v>
+        <v>6855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0318692435844135</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1112584079294481</v>
+        <v>0.1146686801438267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6726</v>
+        <v>6764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02128973052691137</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07516109206059399</v>
+        <v>0.07558365492973355</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5521</v>
+        <v>5630</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02950437606203498</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09234807821293868</v>
+        <v>0.09417554898977928</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -828,19 +828,19 @@
         <v>9100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4527</v>
+        <v>4615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14574</v>
+        <v>14063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3063087642255753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1523923935841943</v>
+        <v>0.1553474627876535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4905654845108056</v>
+        <v>0.4733729296285364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -849,19 +849,19 @@
         <v>10864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5971</v>
+        <v>5769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19230</v>
+        <v>18389</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1213940888251676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06672546601786145</v>
+        <v>0.06446822575979427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2148826343393798</v>
+        <v>0.2054806920654421</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>56115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51673</v>
+        <v>50924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58864</v>
+        <v>58845</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9386263803535515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8643278819694105</v>
+        <v>0.8518039118435762</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9846155175519208</v>
+        <v>0.9842979431821491</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -899,19 +899,19 @@
         <v>20609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15135</v>
+        <v>15646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25182</v>
+        <v>25094</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6936912357744247</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5094345154891945</v>
+        <v>0.5266270703714636</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8476076064158057</v>
+        <v>0.8446525372123465</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -920,19 +920,19 @@
         <v>76724</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68988</v>
+        <v>68563</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82210</v>
+        <v>82053</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.857316180647921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7708718227464101</v>
+        <v>0.7661284588428602</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9186156225355331</v>
+        <v>0.9168614129333106</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6159</v>
+        <v>5656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03511095210124165</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1211643886337642</v>
+        <v>0.1112666935521865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5106</v>
+        <v>4910</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07353760696841238</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3234777450569052</v>
+        <v>0.3110480877244359</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1066,19 +1066,19 @@
         <v>2946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7842</v>
+        <v>8109</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0442168013501133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01232655248255497</v>
+        <v>0.01238929214083273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1177148468185269</v>
+        <v>0.121734562995115</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>3560</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9398</v>
+        <v>9317</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0700411226882299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01846413439791555</v>
+        <v>0.01842451628631232</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.184884517515574</v>
+        <v>0.183289254056783</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1116,19 +1116,19 @@
         <v>3266</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>894</v>
+        <v>956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7610</v>
+        <v>7396</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2068768343436527</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05664661957134142</v>
+        <v>0.06058016176582261</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4820591837398554</v>
+        <v>0.4685290143918184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1137,19 +1137,19 @@
         <v>6826</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3076</v>
+        <v>2883</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14542</v>
+        <v>13807</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1024666712170678</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0461759547454927</v>
+        <v>0.04328507746970729</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.218293867609301</v>
+        <v>0.2072632672414445</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>45485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39021</v>
+        <v>39327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49021</v>
+        <v>48939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8948479252105285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7676706058134519</v>
+        <v>0.773704574330911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9644076420125252</v>
+        <v>0.9627905004281001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1187,19 +1187,19 @@
         <v>11359</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6916</v>
+        <v>7011</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14588</v>
+        <v>14585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7195855586879349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4380995263048629</v>
+        <v>0.4441438636848836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9241327284096362</v>
+        <v>0.9239405032657722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1208,19 +1208,19 @@
         <v>56845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49017</v>
+        <v>50005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61598</v>
+        <v>61660</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8533165274328189</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7358198015867372</v>
+        <v>0.7506464612040104</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9246756603944918</v>
+        <v>0.9256089963000425</v>
       </c>
     </row>
     <row r="11">
@@ -1312,19 +1312,19 @@
         <v>2585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7055</v>
+        <v>6838</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.036028526524289</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01171136101976821</v>
+        <v>0.01169929307585753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0983237032170815</v>
+        <v>0.09529170547420308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7551</v>
+        <v>6586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09349739396229652</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3110721667900954</v>
+        <v>0.2713111950274529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1354,19 +1354,19 @@
         <v>4855</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1721</v>
+        <v>1742</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10821</v>
+        <v>10161</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05055609120338477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01792301876189301</v>
+        <v>0.01814127563660703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1126838631602597</v>
+        <v>0.1058155563220721</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>6043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2428</v>
+        <v>2588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11770</v>
+        <v>12420</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08421219077146844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03384123928425144</v>
+        <v>0.03607132676918808</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1640310976901223</v>
+        <v>0.1730953887299344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6978</v>
+        <v>6699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09076008775531653</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2874713853351608</v>
+        <v>0.2759716284276206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1425,19 +1425,19 @@
         <v>8246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3767</v>
+        <v>3826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17245</v>
+        <v>14986</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08586743475287319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03923177085261251</v>
+        <v>0.03983665359252462</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1795791669604569</v>
+        <v>0.156053240143634</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>63126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57397</v>
+        <v>56591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68087</v>
+        <v>67415</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8797592827042425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7999109105196976</v>
+        <v>0.7886858641777209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9488890608036853</v>
+        <v>0.9395298692526384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1475,19 +1475,19 @@
         <v>19802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14391</v>
+        <v>14492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23111</v>
+        <v>23114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.815742518282387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.59282227582212</v>
+        <v>0.596996318229492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9520657265317635</v>
+        <v>0.9521822494477724</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1496,19 +1496,19 @@
         <v>82929</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74132</v>
+        <v>74965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>88513</v>
+        <v>88438</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.863576474043742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7719631447288927</v>
+        <v>0.7806428787570674</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9217196181457066</v>
+        <v>0.9209449463037542</v>
       </c>
     </row>
     <row r="15">
@@ -1600,19 +1600,19 @@
         <v>9343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4722</v>
+        <v>4654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16331</v>
+        <v>16523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03592534846912381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0181581538244923</v>
+        <v>0.01789573673915219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06279537994581749</v>
+        <v>0.06353269717810162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1621,19 +1621,19 @@
         <v>5912</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2333</v>
+        <v>2311</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13145</v>
+        <v>12512</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0689382079880487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02721005388835454</v>
+        <v>0.0269441388738841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1532858527460231</v>
+        <v>0.1459137441080628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1642,19 +1642,19 @@
         <v>15255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9331</v>
+        <v>9303</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25295</v>
+        <v>25114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04411136416216892</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02698207841559895</v>
+        <v>0.02690100417911365</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07314446930764816</v>
+        <v>0.07262065823875653</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>25869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17871</v>
+        <v>18004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37427</v>
+        <v>35431</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09946993127598608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06871437164041913</v>
+        <v>0.06922649685593681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1439100888638123</v>
+        <v>0.1362337695916108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1692,19 +1692,19 @@
         <v>8778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4628</v>
+        <v>4609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15644</v>
+        <v>16436</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1023617511410447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05396989392531669</v>
+        <v>0.05374653344986105</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.182429687659581</v>
+        <v>0.1916724778348639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1713,19 +1713,19 @@
         <v>34647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24789</v>
+        <v>25586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46601</v>
+        <v>46116</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1001869998105448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0716797244677333</v>
+        <v>0.07398652321884043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.134752801512356</v>
+        <v>0.1333519065921697</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>224859</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>212623</v>
+        <v>213903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>233719</v>
+        <v>234677</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8646047202548901</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8175559540752178</v>
+        <v>0.8224776454512962</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8986702729804762</v>
+        <v>0.9023541815372071</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -1763,19 +1763,19 @@
         <v>71063</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63073</v>
+        <v>61771</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76612</v>
+        <v>76506</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8287000408709067</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7355271036498442</v>
+        <v>0.7203403381720601</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8934191529644087</v>
+        <v>0.8921730082064808</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>313</v>
@@ -1784,19 +1784,19 @@
         <v>295922</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>281832</v>
+        <v>283237</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>307349</v>
+        <v>307700</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8557016360272862</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8149584145360896</v>
+        <v>0.8190193331566782</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8887439970362404</v>
+        <v>0.8897584685656146</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>4666</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1782</v>
+        <v>1827</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10345</v>
+        <v>9598</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08412886333865631</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03213471523132504</v>
+        <v>0.03294184840651114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1865063719042225</v>
+        <v>0.1730496266372031</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1909,19 +1909,19 @@
         <v>16596</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10037</v>
+        <v>9853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25265</v>
+        <v>25492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1724299483048899</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.104279418801752</v>
+        <v>0.1023716825160458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2624944158284627</v>
+        <v>0.2648531825466783</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1930,19 +1930,19 @@
         <v>21263</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13398</v>
+        <v>12521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31279</v>
+        <v>30336</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1401480858907267</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08830855984116889</v>
+        <v>0.08252652678804054</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2061691894024217</v>
+        <v>0.1999509950845675</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>2930</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7957</v>
+        <v>7739</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05282174721123914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01676335335033489</v>
+        <v>0.01670827971843173</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1434670962007748</v>
+        <v>0.1395280172907315</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1980,19 +1980,19 @@
         <v>7964</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3778</v>
+        <v>3377</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15099</v>
+        <v>14656</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08274659970951195</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0392518131073929</v>
+        <v>0.03508734246579009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1568767119078404</v>
+        <v>0.1522731930994523</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -2001,19 +2001,19 @@
         <v>10894</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5345</v>
+        <v>5214</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18736</v>
+        <v>18426</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07180641736087173</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03523025348975962</v>
+        <v>0.03436563742113206</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1234929990300594</v>
+        <v>0.1214504237931335</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>47869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40734</v>
+        <v>42379</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51697</v>
+        <v>51582</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8630493894501046</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7344143960075105</v>
+        <v>0.7640730080657434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9320692529400262</v>
+        <v>0.9299948005676049</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2051,19 +2051,19 @@
         <v>71689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>62087</v>
+        <v>62439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79472</v>
+        <v>79729</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7448234519855982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6450642035177321</v>
+        <v>0.6487201369222341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8256813990920258</v>
+        <v>0.828348732165106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -2072,19 +2072,19 @@
         <v>119558</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>108497</v>
+        <v>109430</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129612</v>
+        <v>129965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7880454967484015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7151367317521726</v>
+        <v>0.7212839811181688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8543123844229328</v>
+        <v>0.856640217021267</v>
       </c>
     </row>
     <row r="23">
@@ -2189,19 +2189,19 @@
         <v>29318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19294</v>
+        <v>19603</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40195</v>
+        <v>41741</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06897220593501945</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04538988324446334</v>
+        <v>0.04611773735036072</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09456172564582585</v>
+        <v>0.0981990402769622</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -2210,19 +2210,19 @@
         <v>29318</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18375</v>
+        <v>19719</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40743</v>
+        <v>41035</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06838579568845005</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04285977979345218</v>
+        <v>0.04599564994676898</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09503557804542166</v>
+        <v>0.09571726295294958</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>63436</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49764</v>
+        <v>49352</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80138</v>
+        <v>79335</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1492377711512162</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1170726738886392</v>
+        <v>0.1161026690339853</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1885284226724716</v>
+        <v>0.1866398870217983</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2273,19 +2273,19 @@
         <v>63437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49691</v>
+        <v>47851</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79089</v>
+        <v>78765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1479689331172304</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1159063820103013</v>
+        <v>0.1116139532058076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1844785942282589</v>
+        <v>0.1837236194652679</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>332315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>314899</v>
+        <v>314570</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>348056</v>
+        <v>348819</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7817900229137644</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7408159258296471</v>
+        <v>0.7400433503955629</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8188212819446056</v>
+        <v>0.8206154369838405</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>331</v>
@@ -2336,19 +2336,19 @@
         <v>335960</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>317934</v>
+        <v>317113</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>352027</v>
+        <v>353466</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7836452711943196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7415976056310341</v>
+        <v>0.7396829104494413</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8211219105100857</v>
+        <v>0.824477876069282</v>
       </c>
     </row>
     <row r="27">
@@ -2440,19 +2440,19 @@
         <v>20285</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13613</v>
+        <v>13556</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32188</v>
+        <v>30476</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04044372964048634</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02714247155652315</v>
+        <v>0.02702743919073256</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06417721478826478</v>
+        <v>0.06076362613699183</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -2461,19 +2461,19 @@
         <v>55257</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41050</v>
+        <v>42509</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>72117</v>
+        <v>73004</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08163876367045232</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06064990420222593</v>
+        <v>0.06280541976522044</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1065495363373529</v>
+        <v>0.1078591556710384</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>73</v>
@@ -2482,19 +2482,19 @@
         <v>75541</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60247</v>
+        <v>58717</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>94210</v>
+        <v>93991</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06410521726054515</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05112631700161244</v>
+        <v>0.04982816918529524</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0799482708949595</v>
+        <v>0.07976166357007447</v>
       </c>
     </row>
     <row r="29">
@@ -2511,19 +2511,19 @@
         <v>40166</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28867</v>
+        <v>28759</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52909</v>
+        <v>52373</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08008320374175633</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0575559548961961</v>
+        <v>0.05733984403288636</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1054909952332799</v>
+        <v>0.1044226978912901</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>88</v>
@@ -2532,19 +2532,19 @@
         <v>94748</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76619</v>
+        <v>78046</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>113785</v>
+        <v>114321</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1399847463091624</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1132000463322732</v>
+        <v>0.1153090662107757</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1681117676071608</v>
+        <v>0.1689037662487529</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>130</v>
@@ -2553,19 +2553,19 @@
         <v>134913</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>114775</v>
+        <v>114723</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>156999</v>
+        <v>158909</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1144892830485507</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09739965665518031</v>
+        <v>0.09735550094367409</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1332318439475462</v>
+        <v>0.1348521122050802</v>
       </c>
     </row>
     <row r="30">
@@ -2582,19 +2582,19 @@
         <v>441101</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>425222</v>
+        <v>426529</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>453946</v>
+        <v>453217</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8794730666177574</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8478137334612983</v>
+        <v>0.8504190480617885</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9050837022295942</v>
+        <v>0.9036307790191451</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>522</v>
@@ -2603,19 +2603,19 @@
         <v>526838</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>502623</v>
+        <v>504644</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>546689</v>
+        <v>548216</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7783764900203852</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7426001766360397</v>
+        <v>0.7455857230946255</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8077049347681514</v>
+        <v>0.8099618304640137</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>980</v>
@@ -2624,19 +2624,19 @@
         <v>967938</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>939457</v>
+        <v>940659</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>992808</v>
+        <v>995473</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8214054996909042</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7972356303935952</v>
+        <v>0.7982556199300798</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8425097980641066</v>
+        <v>0.8447716608908272</v>
       </c>
     </row>
     <row r="31">
@@ -2970,19 +2970,19 @@
         <v>4279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10671</v>
+        <v>11931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09742576994243995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02368851901759736</v>
+        <v>0.02357134900862333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2429756687115426</v>
+        <v>0.2716637632984233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -3012,19 +3012,19 @@
         <v>5378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13437</v>
+        <v>12819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07771325813214212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0160199354499252</v>
+        <v>0.01570022864833954</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1941605628534007</v>
+        <v>0.1852254909455066</v>
       </c>
     </row>
     <row r="5">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5034</v>
+        <v>4895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02244268643654787</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1146323879455239</v>
+        <v>0.1114565782781932</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7276</v>
+        <v>6623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02945219723647992</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1051270631576836</v>
+        <v>0.09569979174068374</v>
       </c>
     </row>
     <row r="6">
@@ -3112,19 +3112,19 @@
         <v>38654</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31851</v>
+        <v>31361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42789</v>
+        <v>42806</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8801315436210122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7252446955057787</v>
+        <v>0.7140738837109973</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9742859186059606</v>
+        <v>0.9746824937251399</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -3133,7 +3133,7 @@
         <v>23137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3142,7 +3142,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3154,19 +3154,19 @@
         <v>61790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54725</v>
+        <v>53985</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66285</v>
+        <v>66137</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.892834544631378</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7907416212245606</v>
+        <v>0.7800542168929905</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9577805342647953</v>
+        <v>0.9556347028352006</v>
       </c>
     </row>
     <row r="7">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11813</v>
+        <v>12062</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05625462087652878</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1948365076741626</v>
+        <v>0.1989412563847791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3279,19 +3279,19 @@
         <v>3322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -3300,19 +3300,19 @@
         <v>6732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2249</v>
+        <v>2289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14935</v>
+        <v>15620</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08465236448760405</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02827219088524632</v>
+        <v>0.0287833128084072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1877895026127096</v>
+        <v>0.1964073928172233</v>
       </c>
     </row>
     <row r="9">
@@ -3329,19 +3329,19 @@
         <v>4108</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9605</v>
+        <v>9527</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06776264927595317</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01671810080001377</v>
+        <v>0.01667687092075588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1584211962968133</v>
+        <v>0.1571307756754044</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4315</v>
+        <v>4307</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05189421597820029</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2282832855303537</v>
+        <v>0.2278623541898213</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -3371,19 +3371,19 @@
         <v>5089</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1907</v>
+        <v>1978</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10899</v>
+        <v>11162</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06399132480771295</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02397983527694594</v>
+        <v>0.02487021054526526</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1370406119160351</v>
+        <v>0.1403423771061845</v>
       </c>
     </row>
     <row r="10">
@@ -3400,19 +3400,19 @@
         <v>53111</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45705</v>
+        <v>45266</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57827</v>
+        <v>57471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.875982729847518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7538302845320334</v>
+        <v>0.7465932409568358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9537638891447877</v>
+        <v>0.9478998205646592</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3421,19 +3421,19 @@
         <v>14599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9823</v>
+        <v>9969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17818</v>
+        <v>17817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7723632474026857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5196933451157423</v>
+        <v>0.5274245046425367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9426582314016456</v>
+        <v>0.9425770234855232</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -3442,19 +3442,19 @@
         <v>67709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59191</v>
+        <v>58759</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73540</v>
+        <v>73367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.851356310704683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7442547364626108</v>
+        <v>0.7388202059033001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9246747095414005</v>
+        <v>0.9225003662832164</v>
       </c>
     </row>
     <row r="11">
@@ -3546,19 +3546,19 @@
         <v>4016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1000</v>
+        <v>1037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9154</v>
+        <v>9714</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03385054233370872</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008427428081174207</v>
+        <v>0.008738897196009029</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07714954380635274</v>
+        <v>0.08187284159570518</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3567,19 +3567,19 @@
         <v>6244</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2089</v>
+        <v>2883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12106</v>
+        <v>12545</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1143242880279909</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0382545050803913</v>
+        <v>0.05278399695679852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2216532518442884</v>
+        <v>0.2297034180025735</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3588,19 +3588,19 @@
         <v>10260</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5192</v>
+        <v>5077</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17487</v>
+        <v>17489</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05921607676014277</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02996576450024347</v>
+        <v>0.02930230272776018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1009224469304614</v>
+        <v>0.1009344167056546</v>
       </c>
     </row>
     <row r="13">
@@ -3617,19 +3617,19 @@
         <v>15074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7707</v>
+        <v>7848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25361</v>
+        <v>25675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1270458960681095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06495126644561665</v>
+        <v>0.06613970099738337</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2137379248919578</v>
+        <v>0.216389456748007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3638,19 +3638,19 @@
         <v>8548</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4217</v>
+        <v>4079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15002</v>
+        <v>15067</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.156516993530147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07722093499872461</v>
+        <v>0.07468067335403515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2746921225502487</v>
+        <v>0.2758701209670439</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3659,19 +3659,19 @@
         <v>23623</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15024</v>
+        <v>14695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36770</v>
+        <v>35556</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1363352628150984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0867100947991107</v>
+        <v>0.08480961394086507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2122166505682357</v>
+        <v>0.2052087073760581</v>
       </c>
     </row>
     <row r="14">
@@ -3688,19 +3688,19 @@
         <v>99562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88472</v>
+        <v>88665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106969</v>
+        <v>107413</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8391035615981818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7456379651587179</v>
+        <v>0.7472666349126887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9015306791839834</v>
+        <v>0.9052709765261148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -3709,19 +3709,19 @@
         <v>39823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32225</v>
+        <v>32338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45766</v>
+        <v>45890</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7291587184418621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.590044164750588</v>
+        <v>0.5921125555705279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8379762525454191</v>
+        <v>0.8402450207584632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -3730,19 +3730,19 @@
         <v>139385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126481</v>
+        <v>127166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>149708</v>
+        <v>150232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8044486604247588</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7299746542600118</v>
+        <v>0.7339268921069589</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8640277021490934</v>
+        <v>0.8670519940647743</v>
       </c>
     </row>
     <row r="15">
@@ -3834,19 +3834,19 @@
         <v>27465</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17215</v>
+        <v>18827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39227</v>
+        <v>38936</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1185113536603927</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0742832660976088</v>
+        <v>0.08123607755391807</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1692610814511991</v>
+        <v>0.1680064418816053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3855,19 +3855,19 @@
         <v>7726</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3152</v>
+        <v>3362</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13962</v>
+        <v>14492</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1285617250846256</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05244769580110463</v>
+        <v>0.05595115434960608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2323269340822988</v>
+        <v>0.2411544039614608</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -3876,19 +3876,19 @@
         <v>35191</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24989</v>
+        <v>24087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48935</v>
+        <v>47574</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1205808526871889</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08562298591938783</v>
+        <v>0.08253412562831314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1676730167938881</v>
+        <v>0.1630103433664552</v>
       </c>
     </row>
     <row r="17">
@@ -3905,19 +3905,19 @@
         <v>29420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19964</v>
+        <v>19057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41890</v>
+        <v>41102</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1269473457046311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08614416743866682</v>
+        <v>0.08222930439459029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1807517113233168</v>
+        <v>0.1773530693829305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -3926,19 +3926,19 @@
         <v>11225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5847</v>
+        <v>5539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18503</v>
+        <v>19177</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1867840831787745</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09729731680505842</v>
+        <v>0.09216429284601003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3078917089962123</v>
+        <v>0.3191186118283799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -3947,19 +3947,19 @@
         <v>40645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30178</v>
+        <v>30099</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54646</v>
+        <v>53800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1392684893462302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.103402501171931</v>
+        <v>0.1031329573110539</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1872415096648617</v>
+        <v>0.1843412582422461</v>
       </c>
     </row>
     <row r="18">
@@ -3976,19 +3976,19 @@
         <v>174867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>161768</v>
+        <v>160146</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>189242</v>
+        <v>187518</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7545413006349762</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6980195652662632</v>
+        <v>0.69102067983976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8165683525305351</v>
+        <v>0.8091268120038292</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -3997,19 +3997,19 @@
         <v>41144</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34007</v>
+        <v>33538</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48284</v>
+        <v>48083</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6846541917365999</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.565892703887929</v>
+        <v>0.5580894691744608</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8034694195790318</v>
+        <v>0.8001224933179996</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>204</v>
@@ -4018,19 +4018,19 @@
         <v>216011</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>200137</v>
+        <v>199419</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>231140</v>
+        <v>230417</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.740150657966581</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6857591708732169</v>
+        <v>0.6832960622590775</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7919890427613703</v>
+        <v>0.7895103627549148</v>
       </c>
     </row>
     <row r="19">
@@ -4122,19 +4122,19 @@
         <v>11481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6048</v>
+        <v>6132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18590</v>
+        <v>18781</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1117928850461309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05889409747213487</v>
+        <v>0.05971502874489313</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1810159008499686</v>
+        <v>0.1828805489346478</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4143,19 +4143,19 @@
         <v>32313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22314</v>
+        <v>22694</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44030</v>
+        <v>43966</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1715115243360233</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1184389403172013</v>
+        <v>0.1204589955130956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2337058818704239</v>
+        <v>0.2333658370781362</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -4164,19 +4164,19 @@
         <v>43793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32722</v>
+        <v>31831</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58512</v>
+        <v>57560</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1504433952001141</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.112408616185724</v>
+        <v>0.1093480512717928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2010069761858323</v>
+        <v>0.1977355809695278</v>
       </c>
     </row>
     <row r="21">
@@ -4193,19 +4193,19 @@
         <v>10904</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5534</v>
+        <v>5410</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17827</v>
+        <v>19297</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1061814754136877</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05388955176860639</v>
+        <v>0.05267795992860305</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1735884397261277</v>
+        <v>0.1879032082696522</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -4214,19 +4214,19 @@
         <v>34542</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24419</v>
+        <v>24044</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47545</v>
+        <v>46756</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1833462764598433</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1296124000034598</v>
+        <v>0.1276204736890452</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2523632908323324</v>
+        <v>0.2481747761397805</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>42</v>
@@ -4235,19 +4235,19 @@
         <v>45447</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33909</v>
+        <v>33573</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59775</v>
+        <v>59153</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1561233187280802</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1164874265249703</v>
+        <v>0.1153346853358085</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2053438156159465</v>
+        <v>0.2032072221599898</v>
       </c>
     </row>
     <row r="22">
@@ -4264,19 +4264,19 @@
         <v>80311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71139</v>
+        <v>71324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87938</v>
+        <v>88724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7820256395401814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.692717751978745</v>
+        <v>0.694516107556378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8562919867735597</v>
+        <v>0.8639496558221273</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -4285,19 +4285,19 @@
         <v>121545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107301</v>
+        <v>106399</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135098</v>
+        <v>134568</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6451421992041334</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5695379763430228</v>
+        <v>0.5647483213371642</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7170799767921342</v>
+        <v>0.7142667809848744</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>191</v>
@@ -4306,19 +4306,19 @@
         <v>201856</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>184935</v>
+        <v>184763</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217642</v>
+        <v>217004</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6934332860718058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6353055798291745</v>
+        <v>0.6347159302133394</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7476630263485602</v>
+        <v>0.7454732762643249</v>
       </c>
     </row>
     <row r="23">
@@ -4423,19 +4423,19 @@
         <v>60330</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46574</v>
+        <v>47101</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76875</v>
+        <v>76097</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1528495997171355</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1179962743772134</v>
+        <v>0.1193319528852656</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1947672492882283</v>
+        <v>0.1927939885719005</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -4444,19 +4444,19 @@
         <v>60330</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47588</v>
+        <v>46373</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75701</v>
+        <v>76167</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1520837085453279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1199630353327045</v>
+        <v>0.1168992192150402</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1908311329538162</v>
+        <v>0.1920047786792199</v>
       </c>
     </row>
     <row r="25">
@@ -4486,19 +4486,19 @@
         <v>46557</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34355</v>
+        <v>34946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60201</v>
+        <v>62565</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1179538884020187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08704046863064771</v>
+        <v>0.08853692118570726</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1525225902270166</v>
+        <v>0.1585101409343246</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -4507,19 +4507,19 @@
         <v>46557</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34904</v>
+        <v>34531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60844</v>
+        <v>60663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1173628509248211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08798723527984167</v>
+        <v>0.08704851309007033</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.15337917751593</v>
+        <v>0.1529214409043243</v>
       </c>
     </row>
     <row r="26">
@@ -4549,19 +4549,19 @@
         <v>287817</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>269947</v>
+        <v>268789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>305058</v>
+        <v>305297</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7291965118808458</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6839223579661272</v>
+        <v>0.6809891612167703</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7728784900107213</v>
+        <v>0.7734841924224023</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>273</v>
@@ -4570,19 +4570,19 @@
         <v>289805</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>272322</v>
+        <v>270310</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>307388</v>
+        <v>308293</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7305534405298511</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6864827627926797</v>
+        <v>0.6814103168313738</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7748774673898149</v>
+        <v>0.7771599660563177</v>
       </c>
     </row>
     <row r="27">
@@ -4674,19 +4674,19 @@
         <v>50652</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37615</v>
+        <v>37541</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65909</v>
+        <v>67310</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09050846534662826</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06721275133572407</v>
+        <v>0.06708170626260658</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1177716558420664</v>
+        <v>0.1202745726958644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>101</v>
@@ -4695,19 +4695,19 @@
         <v>111034</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>92234</v>
+        <v>92112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>133667</v>
+        <v>131691</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1496409226717442</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1243037395569634</v>
+        <v>0.1241391446054328</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1801426900407287</v>
+        <v>0.1774797104682092</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -4716,19 +4716,19 @@
         <v>161686</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>138985</v>
+        <v>138553</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>189073</v>
+        <v>186606</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1242171020414707</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1067763734913822</v>
+        <v>0.106445016577978</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1452575906942803</v>
+        <v>0.1433622307299444</v>
       </c>
     </row>
     <row r="29">
@@ -4745,19 +4745,19 @@
         <v>60493</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47505</v>
+        <v>46133</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>78780</v>
+        <v>77299</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1080937849406581</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08488491685048921</v>
+        <v>0.08243311768992284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1407698905921389</v>
+        <v>0.1381236588630141</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>94</v>
@@ -4766,19 +4766,19 @@
         <v>102906</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85493</v>
+        <v>85674</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>124007</v>
+        <v>124292</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1386862374204268</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1152184967497195</v>
+        <v>0.1154621681641208</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1671239321219251</v>
+        <v>0.1675081256945245</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>147</v>
@@ -4787,19 +4787,19 @@
         <v>163399</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139996</v>
+        <v>140418</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>191534</v>
+        <v>188886</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1255331052884487</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1075535560759426</v>
+        <v>0.107877878890478</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1471477887398548</v>
+        <v>0.145113303394437</v>
       </c>
     </row>
     <row r="30">
@@ -4816,19 +4816,19 @@
         <v>448492</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>427264</v>
+        <v>428171</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>468190</v>
+        <v>469295</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8013977497127136</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7634662251781578</v>
+        <v>0.7650878338277133</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8365959784909052</v>
+        <v>0.8385699890444683</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>498</v>
@@ -4837,19 +4837,19 @@
         <v>528065</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>500704</v>
+        <v>501445</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>553319</v>
+        <v>553010</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.711672839907829</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6747981245611048</v>
+        <v>0.6757977421770399</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7457075243646867</v>
+        <v>0.7452917588266897</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>904</v>
@@ -4858,19 +4858,19 @@
         <v>976557</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>940490</v>
+        <v>943303</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1007211</v>
+        <v>1009187</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7502497926700805</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7225410738130955</v>
+        <v>0.724701998832785</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7738001089040073</v>
+        <v>0.7753182723320085</v>
       </c>
     </row>
     <row r="31">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7595</v>
+        <v>8898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03369926524366901</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1106372453909563</v>
+        <v>0.12962013401829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6127</v>
+        <v>6638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03282329730341099</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.166110032176136</v>
+        <v>0.1799428381870455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5246,19 +5246,19 @@
         <v>3524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10342</v>
+        <v>10012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03339308355957553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007032076400686807</v>
+        <v>0.007010916049069091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0979964970516064</v>
+        <v>0.09487091925011448</v>
       </c>
     </row>
     <row r="5">
@@ -5275,19 +5275,19 @@
         <v>2798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7962</v>
+        <v>7544</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04075392620843105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01203081602786939</v>
+        <v>0.01257592080868456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1159795861988185</v>
+        <v>0.1098904919374693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -5296,19 +5296,19 @@
         <v>4884</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1227</v>
+        <v>1257</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10455</v>
+        <v>10431</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1324002310195894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03326525599549338</v>
+        <v>0.03406831507955358</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2834126427205797</v>
+        <v>0.2827705108048701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -5317,19 +5317,19 @@
         <v>7682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3110</v>
+        <v>3221</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14341</v>
+        <v>14930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07278754143384657</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02946993139128283</v>
+        <v>0.03052433340456038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1358919404809823</v>
+        <v>0.1414658395525932</v>
       </c>
     </row>
     <row r="6">
@@ -5346,19 +5346,19 @@
         <v>63536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57839</v>
+        <v>57840</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67019</v>
+        <v>66858</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9255468085478999</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8425594262966652</v>
+        <v>0.8425676155452707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9762809387985695</v>
+        <v>0.9739442831303392</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -5367,19 +5367,19 @@
         <v>30793</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24524</v>
+        <v>24980</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34557</v>
+        <v>34602</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8347764716769996</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6648115815530892</v>
+        <v>0.677188449336687</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9367985234762085</v>
+        <v>0.9380416548463865</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -5388,19 +5388,19 @@
         <v>94329</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86146</v>
+        <v>86548</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99902</v>
+        <v>100224</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8938193750065779</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8162765405113154</v>
+        <v>0.8200859021532403</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9466278974119635</v>
+        <v>0.949671214337957</v>
       </c>
     </row>
     <row r="7">
@@ -5492,19 +5492,19 @@
         <v>4564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1709</v>
+        <v>1775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9159</v>
+        <v>9264</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08556673278324316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03203239031749313</v>
+        <v>0.03327141994880716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1717047490144868</v>
+        <v>0.1736589800933892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5526,19 +5526,19 @@
         <v>4564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1613</v>
+        <v>1585</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9730</v>
+        <v>9927</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06434979811446413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02274031569361513</v>
+        <v>0.02235152562169432</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1371783646305496</v>
+        <v>0.1399487721601775</v>
       </c>
     </row>
     <row r="9">
@@ -5555,19 +5555,19 @@
         <v>2674</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7211</v>
+        <v>7452</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05011899408225467</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01477658981409184</v>
+        <v>0.01482405903232788</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.135179181679368</v>
+        <v>0.1396999827056391</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7140</v>
+        <v>7414</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.148318166405232</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4059694149365029</v>
+        <v>0.421562666607919</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -5597,19 +5597,19 @@
         <v>5282</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2064</v>
+        <v>1795</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11352</v>
+        <v>11239</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0744682400559516</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0290955245357174</v>
+        <v>0.02530803152199829</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1600383799633497</v>
+        <v>0.1584520199105288</v>
       </c>
     </row>
     <row r="10">
@@ -5626,19 +5626,19 @@
         <v>46106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40751</v>
+        <v>40430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50055</v>
+        <v>49846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8643142731345022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.763925894945257</v>
+        <v>0.7579100759931047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9383431322542634</v>
+        <v>0.9344325883412659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5647,7 +5647,7 @@
         <v>14979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10448</v>
+        <v>10174</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5656,7 +5656,7 @@
         <v>0.8516818335947679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5940305850634967</v>
+        <v>0.578437333392081</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5668,19 +5668,19 @@
         <v>61085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54704</v>
+        <v>54456</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65961</v>
+        <v>66168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8611819618295843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7712237433450404</v>
+        <v>0.7677257651249091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9299245526469642</v>
+        <v>0.9328368009709435</v>
       </c>
     </row>
     <row r="11">
@@ -5772,19 +5772,19 @@
         <v>6856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3152</v>
+        <v>3211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12861</v>
+        <v>13733</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05700539288811962</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02620751427562482</v>
+        <v>0.02669828243608459</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1069430718328091</v>
+        <v>0.114194615037031</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -5814,19 +5814,19 @@
         <v>8043</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3804</v>
+        <v>3686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14737</v>
+        <v>14023</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.048313446836857</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0228509973400816</v>
+        <v>0.02214032001832282</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08852812420661174</v>
+        <v>0.0842370888193771</v>
       </c>
     </row>
     <row r="13">
@@ -5843,19 +5843,19 @@
         <v>3908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9203</v>
+        <v>9281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03249376133935251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007271282212444607</v>
+        <v>0.007333837088581249</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07652389215115611</v>
+        <v>0.07717157488322944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5864,19 +5864,19 @@
         <v>9123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3773</v>
+        <v>3663</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16827</v>
+        <v>17258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1974188081755714</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08166063175750488</v>
+        <v>0.07927820007499503</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3641490002098732</v>
+        <v>0.3734841998979687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5885,19 +5885,19 @@
         <v>13030</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7099</v>
+        <v>7462</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21795</v>
+        <v>23057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07827379244093843</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04264603937958653</v>
+        <v>0.04482658468638671</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1309247796384302</v>
+        <v>0.1385068221046224</v>
       </c>
     </row>
     <row r="14">
@@ -5914,19 +5914,19 @@
         <v>109498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102841</v>
+        <v>102214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114502</v>
+        <v>114137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9105008457725279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8551476690802368</v>
+        <v>0.8499333965767639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9521105511077057</v>
+        <v>0.9490811842290316</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -5935,19 +5935,19 @@
         <v>35899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28428</v>
+        <v>27843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41759</v>
+        <v>41552</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7768890063568412</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.615194020577353</v>
+        <v>0.6025504916064678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9037025819454013</v>
+        <v>0.8992095639963222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -5956,19 +5956,19 @@
         <v>145397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>134844</v>
+        <v>135283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152877</v>
+        <v>152175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8734127607222045</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8100184623188472</v>
+        <v>0.8126561460774571</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9183454311900611</v>
+        <v>0.9141311038409204</v>
       </c>
     </row>
     <row r="15">
@@ -6060,19 +6060,19 @@
         <v>13499</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8497</v>
+        <v>8282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22289</v>
+        <v>21180</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06621851836579262</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04168172595020704</v>
+        <v>0.04062537929495546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1093345777246902</v>
+        <v>0.1038989828814251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6081,19 +6081,19 @@
         <v>11305</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5058</v>
+        <v>5310</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20391</v>
+        <v>20311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1141363330996888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05106875816930793</v>
+        <v>0.05361355513717194</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2058735329935689</v>
+        <v>0.2050626359729171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -6102,19 +6102,19 @@
         <v>24804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16435</v>
+        <v>15532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36066</v>
+        <v>35904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08188718793511945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0542592571716537</v>
+        <v>0.05127839959033191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1190672402253173</v>
+        <v>0.1185331898099451</v>
       </c>
     </row>
     <row r="17">
@@ -6131,19 +6131,19 @@
         <v>15277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9214</v>
+        <v>8884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22962</v>
+        <v>23412</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07493924932508832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04519801360446953</v>
+        <v>0.04357862605287061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.112636212090067</v>
+        <v>0.1148468748883145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -6152,19 +6152,19 @@
         <v>11501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5823</v>
+        <v>5538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20255</v>
+        <v>20629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1161142837231911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05879334537161714</v>
+        <v>0.05590889811345996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2045038765849927</v>
+        <v>0.2082815164826519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -6173,19 +6173,19 @@
         <v>26777</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17982</v>
+        <v>17745</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38571</v>
+        <v>37949</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08840309386959266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05936581582763409</v>
+        <v>0.05858364434923068</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1273384211522342</v>
+        <v>0.1252840049077188</v>
       </c>
     </row>
     <row r="18">
@@ -6202,19 +6202,19 @@
         <v>175080</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>165275</v>
+        <v>164753</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183386</v>
+        <v>183562</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.858842232309119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8107416018222778</v>
+        <v>0.8081852125022846</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8995858392989797</v>
+        <v>0.9004489643872992</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -6223,19 +6223,19 @@
         <v>76241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65343</v>
+        <v>65012</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84297</v>
+        <v>84247</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7697493831771202</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6597210854230445</v>
+        <v>0.6563809422153898</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8510855771931167</v>
+        <v>0.8505796434572757</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>252</v>
@@ -6244,19 +6244,19 @@
         <v>251321</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>236416</v>
+        <v>237862</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>264333</v>
+        <v>264271</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8297097181952879</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7805047009735263</v>
+        <v>0.7852763625605936</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8726696083984581</v>
+        <v>0.872465230310454</v>
       </c>
     </row>
     <row r="19">
@@ -6348,19 +6348,19 @@
         <v>11861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6262</v>
+        <v>6450</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19293</v>
+        <v>19584</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08167319679526806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04312206438395529</v>
+        <v>0.04441379768126879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.132851584387853</v>
+        <v>0.1348588792942745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -6369,19 +6369,19 @@
         <v>13825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7496</v>
+        <v>6767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24343</v>
+        <v>22406</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08664998035520959</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04698220054347944</v>
+        <v>0.04241304272928572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1525704374704059</v>
+        <v>0.1404339306045861</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -6390,19 +6390,19 @@
         <v>25686</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17332</v>
+        <v>17354</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38089</v>
+        <v>38211</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0842785857445579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05686992516067651</v>
+        <v>0.05694042884166189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1249772535913667</v>
+        <v>0.1253757517888779</v>
       </c>
     </row>
     <row r="21">
@@ -6419,19 +6419,19 @@
         <v>17170</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10824</v>
+        <v>10349</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25994</v>
+        <v>26482</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1182353964059508</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07453764258562583</v>
+        <v>0.0712603555913038</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1789931526960862</v>
+        <v>0.1823545926474</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -6440,19 +6440,19 @@
         <v>26259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17093</v>
+        <v>17833</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36427</v>
+        <v>38914</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1645845700615804</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1071309315664957</v>
+        <v>0.1117713726280284</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2283086718249693</v>
+        <v>0.2438966169619782</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -6461,19 +6461,19 @@
         <v>43430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31002</v>
+        <v>32575</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56459</v>
+        <v>58487</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1424995870014752</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1017231291528487</v>
+        <v>0.1068835205102553</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1852507417040229</v>
+        <v>0.1919060040912947</v>
       </c>
     </row>
     <row r="22">
@@ -6490,19 +6490,19 @@
         <v>116190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106881</v>
+        <v>104946</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>124434</v>
+        <v>124736</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8000914067987811</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7359917749750968</v>
+        <v>0.722664912263508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8568600981927329</v>
+        <v>0.8589403245183211</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -6511,19 +6511,19 @@
         <v>119466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107816</v>
+        <v>106569</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130610</v>
+        <v>130465</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.74876544958321</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6757512532327687</v>
+        <v>0.667931748806432</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8186127564883406</v>
+        <v>0.8177053973473127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>234</v>
@@ -6532,19 +6532,19 @@
         <v>235656</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>220576</v>
+        <v>220636</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>251052</v>
+        <v>250696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7732218272539669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.723742619538106</v>
+        <v>0.7239396860953005</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8237389726441375</v>
+        <v>0.8225714171188496</v>
       </c>
     </row>
     <row r="23">
@@ -6645,19 +6645,19 @@
         <v>43228</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29683</v>
+        <v>30441</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>57960</v>
+        <v>60821</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1046476313669883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07185681315623774</v>
+        <v>0.07369211968872613</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1403114229284423</v>
+        <v>0.1472356000940801</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -6666,19 +6666,19 @@
         <v>43228</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29683</v>
+        <v>30441</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57960</v>
+        <v>60821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1046476313669883</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07185681315623774</v>
+        <v>0.07369211968872613</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1403114229284423</v>
+        <v>0.1472356000940801</v>
       </c>
     </row>
     <row r="25">
@@ -6704,19 +6704,19 @@
         <v>67980</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53139</v>
+        <v>52900</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86422</v>
+        <v>85816</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1645685755110773</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1286408486927749</v>
+        <v>0.1280618566021182</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2092111283472924</v>
+        <v>0.2077452329229746</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -6725,19 +6725,19 @@
         <v>67980</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53139</v>
+        <v>52900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86422</v>
+        <v>85816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1645685755110773</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1286408486927749</v>
+        <v>0.1280618566021182</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2092111283472924</v>
+        <v>0.2077452329229746</v>
       </c>
     </row>
     <row r="26">
@@ -6763,7 +6763,7 @@
         <v>301874</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>280997</v>
+        <v>279148</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>320393</v>
@@ -6772,10 +6772,10 @@
         <v>0.7307837931219344</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6802442730018532</v>
+        <v>0.6757664458355267</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7756145925122511</v>
+        <v>0.7756137479082661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>259</v>
@@ -6784,7 +6784,7 @@
         <v>301874</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>280997</v>
+        <v>279148</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>320393</v>
@@ -6793,10 +6793,10 @@
         <v>0.7307837931219344</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6802442730018532</v>
+        <v>0.6757664458355267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7756145925122511</v>
+        <v>0.7756137479082661</v>
       </c>
     </row>
     <row r="27">
@@ -6876,19 +6876,19 @@
         <v>39093</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29062</v>
+        <v>29997</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53615</v>
+        <v>52359</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06611049591069795</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04914663216630341</v>
+        <v>0.05072884122736237</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0906695067617083</v>
+        <v>0.08854480080657992</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -6897,19 +6897,19 @@
         <v>70756</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>53732</v>
+        <v>53435</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>92965</v>
+        <v>89762</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09160950599896227</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06956843839474418</v>
+        <v>0.0691839462671912</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1203638878849056</v>
+        <v>0.1162171359179789</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>99</v>
@@ -6918,19 +6918,19 @@
         <v>109849</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>88843</v>
+        <v>90149</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>132742</v>
+        <v>131693</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08055255254272262</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06514885548075036</v>
+        <v>0.0661063750604757</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09733999728816575</v>
+        <v>0.09657126812190273</v>
       </c>
     </row>
     <row r="29">
@@ -6947,19 +6947,19 @@
         <v>41826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31696</v>
+        <v>31087</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>56343</v>
+        <v>54726</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0707321699831529</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05360155891404233</v>
+        <v>0.05257069512172245</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09528245368099603</v>
+        <v>0.09254840867258556</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>98</v>
@@ -6968,19 +6968,19 @@
         <v>122356</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>99849</v>
+        <v>102853</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>147146</v>
+        <v>144380</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1584171704691623</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1292767333667703</v>
+        <v>0.1331669499484311</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1905144043341729</v>
+        <v>0.1869327405234242</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>143</v>
@@ -6989,19 +6989,19 @@
         <v>164182</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>140333</v>
+        <v>139902</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>192633</v>
+        <v>189840</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1203949505544224</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1029067282088579</v>
+        <v>0.102590892795053</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1412587401219164</v>
+        <v>0.1392104130120165</v>
       </c>
     </row>
     <row r="30">
@@ -7018,19 +7018,19 @@
         <v>510409</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>494457</v>
+        <v>494789</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>526117</v>
+        <v>525322</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8631573341061491</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8361799478138719</v>
+        <v>0.8367421592812853</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8897217928248695</v>
+        <v>0.8883771092004543</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>497</v>
@@ -7039,19 +7039,19 @@
         <v>579252</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>548356</v>
+        <v>554533</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>605256</v>
+        <v>606725</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7499733235318754</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7099705766345699</v>
+        <v>0.7179679717258972</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7836412839321035</v>
+        <v>0.7855425435816398</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1035</v>
@@ -7060,19 +7060,19 @@
         <v>1089661</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1056748</v>
+        <v>1058324</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1116731</v>
+        <v>1117200</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.799052496902855</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.774916878635744</v>
+        <v>0.7760728879019754</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8189028576065372</v>
+        <v>0.8192468558813281</v>
       </c>
     </row>
     <row r="31">
@@ -7406,19 +7406,19 @@
         <v>2583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6368</v>
+        <v>5913</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02156228590121539</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008509932809116971</v>
+        <v>0.008024082432764045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05315004132745011</v>
+        <v>0.0493475328451829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -7427,19 +7427,19 @@
         <v>3279</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8848</v>
+        <v>9826</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04398014409777395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01218008472227055</v>
+        <v>0.01231954151762138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1186684714134142</v>
+        <v>0.1317946575989443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -7448,19 +7448,19 @@
         <v>5863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2775</v>
+        <v>2843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12351</v>
+        <v>11954</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03016149192053862</v>
+        <v>0.03016149192053863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01427550097741946</v>
+        <v>0.01462682771495755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06354244829104369</v>
+        <v>0.06150094814435757</v>
       </c>
     </row>
     <row r="5">
@@ -7477,19 +7477,19 @@
         <v>4171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1739</v>
+        <v>1785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8706</v>
+        <v>8273</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03480907919547552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01451126164056279</v>
+        <v>0.01489987938437311</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07265991534151509</v>
+        <v>0.06905187139948901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -7498,19 +7498,19 @@
         <v>6052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10726</v>
+        <v>10681</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08116414234056887</v>
+        <v>0.08116414234056889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04291313390945574</v>
+        <v>0.04293767870493798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1438617242671118</v>
+        <v>0.1432531909399453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -7519,19 +7519,19 @@
         <v>10222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5944</v>
+        <v>6177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15487</v>
+        <v>16090</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05259029337429426</v>
+        <v>0.05259029337429427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03057872143890035</v>
+        <v>0.03177924778554578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07967732865660306</v>
+        <v>0.08278144808860212</v>
       </c>
     </row>
     <row r="6">
@@ -7548,19 +7548,19 @@
         <v>113060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107802</v>
+        <v>108545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116239</v>
+        <v>116090</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9436286349033091</v>
+        <v>0.9436286349033092</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8997458949172281</v>
+        <v>0.9059455279444346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9701600286745472</v>
+        <v>0.9689161834792851</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>118</v>
@@ -7569,19 +7569,19 @@
         <v>65228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59509</v>
+        <v>59198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69108</v>
+        <v>69385</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8748557135616573</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7981482498416952</v>
+        <v>0.7939739624892654</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.926889118707796</v>
+        <v>0.9305990396427298</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>276</v>
@@ -7590,19 +7590,19 @@
         <v>178288</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>170830</v>
+        <v>170812</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>183461</v>
+        <v>183476</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9172482147051669</v>
+        <v>0.9172482147051672</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.878876127591066</v>
+        <v>0.8787847942571257</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9438630123450613</v>
+        <v>0.9439384659222996</v>
       </c>
     </row>
     <row r="7">
@@ -7694,19 +7694,19 @@
         <v>3684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1307</v>
+        <v>1462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7699</v>
+        <v>7522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03518592307155013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01247731712859256</v>
+        <v>0.01396053910215247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07352580614377149</v>
+        <v>0.07183055266312421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -7715,19 +7715,19 @@
         <v>2332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5649</v>
+        <v>5409</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04211254073777766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01230531615683561</v>
+        <v>0.01173662185152991</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1020007166056268</v>
+        <v>0.09766079981275685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -7736,19 +7736,19 @@
         <v>6017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3101</v>
+        <v>2705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10818</v>
+        <v>10400</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0375821083433439</v>
+        <v>0.03758210834334391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01937074209697726</v>
+        <v>0.01689571960955279</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06756768465866893</v>
+        <v>0.06496231946318748</v>
       </c>
     </row>
     <row r="9">
@@ -7765,19 +7765,19 @@
         <v>9420</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5088</v>
+        <v>4895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15709</v>
+        <v>16203</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08996283582101122</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04859369987106656</v>
+        <v>0.04674789078133191</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1500154449500812</v>
+        <v>0.154729721200745</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -7786,19 +7786,19 @@
         <v>7598</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4238</v>
+        <v>4403</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12082</v>
+        <v>12171</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1371840201454183</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07651801089803401</v>
+        <v>0.07949022535235067</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2181447545583786</v>
+        <v>0.2197521917630832</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -7807,19 +7807,19 @@
         <v>17018</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11405</v>
+        <v>10880</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24122</v>
+        <v>24979</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.106298472035855</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07123424174878824</v>
+        <v>0.06795788783434467</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1506714077885565</v>
+        <v>0.1560213958862053</v>
       </c>
     </row>
     <row r="10">
@@ -7836,19 +7836,19 @@
         <v>91610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84387</v>
+        <v>84992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96748</v>
+        <v>96828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8748512411074386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8058736278890971</v>
+        <v>0.8116550726325373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9239206466824026</v>
+        <v>0.9246834535322607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -7857,19 +7857,19 @@
         <v>45455</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40245</v>
+        <v>40346</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49007</v>
+        <v>49178</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.820703439116804</v>
+        <v>0.8207034391168041</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7266403965482288</v>
+        <v>0.7284574045123807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8848458280724143</v>
+        <v>0.8879350473265927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -7878,19 +7878,19 @@
         <v>137065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129146</v>
+        <v>128624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143787</v>
+        <v>143900</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8561194196208007</v>
+        <v>0.8561194196208011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8066594233828113</v>
+        <v>0.8033953594184381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8981064086043884</v>
+        <v>0.8988146440102995</v>
       </c>
     </row>
     <row r="11">
@@ -7982,19 +7982,19 @@
         <v>5123</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2645</v>
+        <v>2383</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9432</v>
+        <v>9813</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04579281355906696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02364173626445758</v>
+        <v>0.02129601122581838</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08430189884626564</v>
+        <v>0.08770560899177078</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -8003,19 +8003,19 @@
         <v>8431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4886</v>
+        <v>5197</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13698</v>
+        <v>14519</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.145440383210345</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08429058398470499</v>
+        <v>0.08964186982680601</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2362941096275493</v>
+        <v>0.2504621802449438</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -8024,19 +8024,19 @@
         <v>13555</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8834</v>
+        <v>8640</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20176</v>
+        <v>19867</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07980198480248106</v>
+        <v>0.07980198480248105</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05200885649759903</v>
+        <v>0.05086655864452295</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1187839903392538</v>
+        <v>0.1169626367357012</v>
       </c>
     </row>
     <row r="13">
@@ -8053,19 +8053,19 @@
         <v>8362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4308</v>
+        <v>4449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13885</v>
+        <v>14065</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0747349734750629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03850798430873664</v>
+        <v>0.03976539325840493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1241033419712587</v>
+        <v>0.1257138778907624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -8074,19 +8074,19 @@
         <v>9613</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6035</v>
+        <v>5922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14528</v>
+        <v>14466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1658268484917356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1041070394384672</v>
+        <v>0.1021568640359313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2506139590230831</v>
+        <v>0.2495381116641587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -8095,19 +8095,19 @@
         <v>17975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12096</v>
+        <v>12253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25015</v>
+        <v>24770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1058241328711944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07121236464642845</v>
+        <v>0.07213746191835556</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1472752815579965</v>
+        <v>0.1458291190327544</v>
       </c>
     </row>
     <row r="14">
@@ -8124,19 +8124,19 @@
         <v>98399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91551</v>
+        <v>91498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103071</v>
+        <v>103101</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8794722129658702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.818266663547664</v>
+        <v>0.8177909692454357</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9212326815616775</v>
+        <v>0.92149968777316</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -8145,19 +8145,19 @@
         <v>39926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34235</v>
+        <v>33967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44839</v>
+        <v>45078</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6887327682979194</v>
+        <v>0.6887327682979193</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5905624667560398</v>
+        <v>0.5859492528748653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7734825662672338</v>
+        <v>0.777615148446358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -8166,19 +8166,19 @@
         <v>138325</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128404</v>
+        <v>130162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145452</v>
+        <v>145955</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8143738823263247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7559684361869768</v>
+        <v>0.766316449549762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8563357430645011</v>
+        <v>0.8592970674189541</v>
       </c>
     </row>
     <row r="15">
@@ -8270,19 +8270,19 @@
         <v>25696</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18292</v>
+        <v>18607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35525</v>
+        <v>35809</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09907739535392261</v>
+        <v>0.09907739535392258</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07053030610103696</v>
+        <v>0.07174378609234004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1369758183636309</v>
+        <v>0.1380692021887805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -8291,19 +8291,19 @@
         <v>14849</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10619</v>
+        <v>9822</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20837</v>
+        <v>20224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1134551420977134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08113523216760131</v>
+        <v>0.07504730935491186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1592044708950477</v>
+        <v>0.1545199646868443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -8312,19 +8312,19 @@
         <v>40545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31426</v>
+        <v>31653</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51100</v>
+        <v>52037</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1038995357040587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08053034890869477</v>
+        <v>0.08111269538899682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1309469476545859</v>
+        <v>0.1333497185327543</v>
       </c>
     </row>
     <row r="17">
@@ -8341,19 +8341,19 @@
         <v>32555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24541</v>
+        <v>24967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42652</v>
+        <v>42357</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1255238731823036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09462347199528472</v>
+        <v>0.09626786253594771</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1644543759829753</v>
+        <v>0.1633163940170765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -8362,19 +8362,19 @@
         <v>12530</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8324</v>
+        <v>8158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18018</v>
+        <v>18255</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09573643587430994</v>
+        <v>0.09573643587430992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06359705115212869</v>
+        <v>0.06233513519587704</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1376650108679384</v>
+        <v>0.1394761049827348</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -8383,19 +8383,19 @@
         <v>45085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36445</v>
+        <v>35660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57043</v>
+        <v>57004</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1155334897147372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09339176329841652</v>
+        <v>0.09138161433824753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1461765601662276</v>
+        <v>0.1460757227593502</v>
       </c>
     </row>
     <row r="18">
@@ -8412,19 +8412,19 @@
         <v>201102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>189914</v>
+        <v>188639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211457</v>
+        <v>211012</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7753987314637737</v>
+        <v>0.7753987314637736</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7322613237521493</v>
+        <v>0.7273441095174799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8153254966059957</v>
+        <v>0.8136094674755848</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>204</v>
@@ -8433,19 +8433,19 @@
         <v>103501</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>97002</v>
+        <v>96469</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109390</v>
+        <v>109775</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7908084220279767</v>
+        <v>0.7908084220279766</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7411490794536721</v>
+        <v>0.737076763217665</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8358053853339633</v>
+        <v>0.838747832772504</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>490</v>
@@ -8454,19 +8454,19 @@
         <v>304603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>291815</v>
+        <v>290229</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>318018</v>
+        <v>316905</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7805669745812043</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7477971745308761</v>
+        <v>0.7437327837259647</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8149442907658174</v>
+        <v>0.8120926445402927</v>
       </c>
     </row>
     <row r="19">
@@ -8558,19 +8558,19 @@
         <v>8188</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4582</v>
+        <v>4671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13275</v>
+        <v>13060</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0819865841312991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04588398522434421</v>
+        <v>0.04677759207789897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1329266184138497</v>
+        <v>0.130776359352562</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -8579,19 +8579,19 @@
         <v>41466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33776</v>
+        <v>34023</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50459</v>
+        <v>50115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1882718892347614</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1533557706384862</v>
+        <v>0.1544801503476522</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2291065960223661</v>
+        <v>0.2275425508712819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -8600,19 +8600,19 @@
         <v>49653</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40799</v>
+        <v>41115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59127</v>
+        <v>60710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1551140809388734</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1274538977409755</v>
+        <v>0.1284418407169649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1847079764120905</v>
+        <v>0.1896537926537142</v>
       </c>
     </row>
     <row r="21">
@@ -8629,19 +8629,19 @@
         <v>12772</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8216</v>
+        <v>8033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19027</v>
+        <v>18729</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1278928801545385</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08227016412852163</v>
+        <v>0.08043539338037656</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.190531087018739</v>
+        <v>0.1875427781864495</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -8650,19 +8650,19 @@
         <v>45601</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37293</v>
+        <v>37617</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54931</v>
+        <v>54441</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2070478209811627</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1693250224112096</v>
+        <v>0.1707951965944505</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2494102643234764</v>
+        <v>0.2471830507738864</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>114</v>
@@ -8671,19 +8671,19 @@
         <v>58373</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48915</v>
+        <v>49634</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69266</v>
+        <v>69679</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1823538677479602</v>
+        <v>0.1823538677479601</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1528074992551434</v>
+        <v>0.1550553075816387</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2163818843462615</v>
+        <v>0.2176747343372193</v>
       </c>
     </row>
     <row r="22">
@@ -8700,19 +8700,19 @@
         <v>78905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71905</v>
+        <v>72182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84955</v>
+        <v>84820</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7901205357141626</v>
+        <v>0.7901205357141624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7200315630461241</v>
+        <v>0.7228052609464694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8507078584918122</v>
+        <v>0.8493559443572778</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>261</v>
@@ -8721,19 +8721,19 @@
         <v>133177</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122302</v>
+        <v>122829</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142974</v>
+        <v>143032</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6046802897840758</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5553007526334384</v>
+        <v>0.5576963736010817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6491625672075453</v>
+        <v>0.6494273629398162</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -8742,19 +8742,19 @@
         <v>212082</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>199958</v>
+        <v>198262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224055</v>
+        <v>223723</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6625320513131665</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.624658266795553</v>
+        <v>0.6193608824543867</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6999347345934055</v>
+        <v>0.6988977177203269</v>
       </c>
     </row>
     <row r="23">
@@ -8846,7 +8846,7 @@
         <v>1688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>2804</v>
@@ -8855,7 +8855,7 @@
         <v>0.515233228072198</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0</v>
+        <v>0.1601840542386648</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>0.8558865677125822</v>
@@ -8867,19 +8867,19 @@
         <v>67278</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56790</v>
+        <v>55812</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80527</v>
+        <v>79731</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1945679879912907</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1642368713823452</v>
+        <v>0.1614074966825019</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2328824494817013</v>
+        <v>0.2305822280907713</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -8888,19 +8888,19 @@
         <v>68966</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57087</v>
+        <v>57948</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>80483</v>
+        <v>80625</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1975776498396159</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.163546722838949</v>
+        <v>0.1660133843666252</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2305709967589945</v>
+        <v>0.2309773572513939</v>
       </c>
     </row>
     <row r="25">
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2226</v>
+        <v>1932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1575123810807746</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6794728609246499</v>
+        <v>0.5898691700626242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -8938,19 +8938,19 @@
         <v>68832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58624</v>
+        <v>57792</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80586</v>
+        <v>79843</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1990618517658343</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1695396098668485</v>
+        <v>0.1671323323815178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2330525704539251</v>
+        <v>0.2309060392880248</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -8959,19 +8959,19 @@
         <v>69348</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57586</v>
+        <v>59346</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79777</v>
+        <v>80812</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1986718816627219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1649748569288542</v>
+        <v>0.1700164872039509</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2285488371843239</v>
+        <v>0.2315129213682936</v>
       </c>
     </row>
     <row r="26">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>394</v>
@@ -9009,19 +9009,19 @@
         <v>209672</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>196007</v>
+        <v>195852</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223055</v>
+        <v>223812</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.606370160242875</v>
+        <v>0.6063701602428752</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5668509371329044</v>
+        <v>0.5664007396972949</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6450736372452117</v>
+        <v>0.6472602110210023</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>396</v>
@@ -9030,19 +9030,19 @@
         <v>210745</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>197786</v>
+        <v>197416</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>225000</v>
+        <v>223213</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6037504684976623</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5666274416999618</v>
+        <v>0.5655653915961119</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6445909460165479</v>
+        <v>0.6394718092163816</v>
       </c>
     </row>
     <row r="27">
@@ -9134,19 +9134,19 @@
         <v>46963</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37667</v>
+        <v>36627</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59705</v>
+        <v>58767</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06719492417716295</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05389408742718396</v>
+        <v>0.05240655338275914</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08542626780277959</v>
+        <v>0.08408375876629769</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>255</v>
@@ -9155,19 +9155,19 @@
         <v>137636</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>123012</v>
+        <v>122308</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>155261</v>
+        <v>155844</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1555521201699654</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1390246487507327</v>
+        <v>0.1382294000944292</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1754720045218187</v>
+        <v>0.1761307573566071</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>331</v>
@@ -9176,19 +9176,19 @@
         <v>184599</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>165714</v>
+        <v>167196</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>205970</v>
+        <v>207202</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1165596709585294</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1046355308312919</v>
+        <v>0.105570919523279</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1300540808172979</v>
+        <v>0.1308317274176294</v>
       </c>
     </row>
     <row r="29">
@@ -9205,19 +9205,19 @@
         <v>67796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>55409</v>
+        <v>55147</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80790</v>
+        <v>82881</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09700250362325955</v>
+        <v>0.09700250362325953</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07927950335194484</v>
+        <v>0.07890464735808614</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1155948085742146</v>
+        <v>0.1185860901727967</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>286</v>
@@ -9226,19 +9226,19 @@
         <v>150226</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>135123</v>
+        <v>134566</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167320</v>
+        <v>167422</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1697808712353519</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1527127469364108</v>
+        <v>0.1520832555345965</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1891008313713708</v>
+        <v>0.189215404594433</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>385</v>
@@ -9247,19 +9247,19 @@
         <v>218021</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>197019</v>
+        <v>197931</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>241540</v>
+        <v>238312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1376634327978884</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1244021305599592</v>
+        <v>0.1249779324255616</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1525133081919411</v>
+        <v>0.1504750273573011</v>
       </c>
     </row>
     <row r="30">
@@ -9276,19 +9276,19 @@
         <v>584147</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>567069</v>
+        <v>566857</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>599819</v>
+        <v>601312</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8358025721995775</v>
+        <v>0.8358025721995774</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8113663034896025</v>
+        <v>0.8110627787602276</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8582252286097288</v>
+        <v>0.860362035798615</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1133</v>
@@ -9297,19 +9297,19 @@
         <v>596960</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>576461</v>
+        <v>576228</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>617034</v>
+        <v>617787</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6746670085946828</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.651500445154628</v>
+        <v>0.6512367090472775</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6973549693641378</v>
+        <v>0.6982051076299258</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1961</v>
@@ -9318,19 +9318,19 @@
         <v>1181108</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1149942</v>
+        <v>1153572</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1207539</v>
+        <v>1205627</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.745776896243582</v>
+        <v>0.7457768962435821</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7260980361790079</v>
+        <v>0.7283901160505565</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7624662082960156</v>
+        <v>0.7612585951955699</v>
       </c>
     </row>
     <row r="31">
